--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,108 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Riddhesh Bhagat</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23:59:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aditya</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Riddhesh Bhagat</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>00:00:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Shivam</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>11:24:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Atharv nikam 196</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>12:24:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DTI SIR</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>12:26:42</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
